--- a/CONTROLE_VENDA_MODELO.xlsx
+++ b/CONTROLE_VENDA_MODELO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\AULAS_VBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\VBA_CLASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF180A5-0FB5-42FA-A484-8DACDBEA0C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B544C8-B374-4E97-89AC-A58676A150BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" activeTab="2" xr2:uid="{82A755F5-B6ED-4B46-835F-6B5C367599FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" activeTab="1" xr2:uid="{82A755F5-B6ED-4B46-835F-6B5C367599FC}"/>
   </bookViews>
   <sheets>
     <sheet name="VENDAS" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -190,14 +190,18 @@
   </si>
   <si>
     <t>ESTOQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPHONE 12 PRO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -289,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,23 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -384,31 +377,66 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3"/>
@@ -446,41 +474,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Ênfase3" xfId="6" builtinId="38"/>
-    <cellStyle name="60% - Ênfase2" xfId="5" builtinId="36"/>
-    <cellStyle name="Cálculo" xfId="7" builtinId="22"/>
+  <cellStyles count="6">
+    <cellStyle name="60% - Ênfase2" xfId="4" builtinId="36"/>
+    <cellStyle name="Cálculo" xfId="5" builtinId="22"/>
     <cellStyle name="Célula de Verificação" xfId="3" builtinId="23"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="4" builtinId="10"/>
     <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,7 +955,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,13 +964,13 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -961,19 +992,19 @@
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
@@ -1000,11 +1031,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="40"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="31"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
@@ -1088,15 +1119,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -1138,11 +1169,11 @@
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="35"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -1280,29 +1311,12 @@
       <c r="N20" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{331FBB5A-138A-45AE-8063-676B6538E36C}">
-          <x14:formula1>
-            <xm:f>CONTROLE_ESTOQUE!$B$2:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4:G4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CFA8379-807D-4066-85DF-D129A59D470B}">
-          <x14:formula1>
-            <xm:f>CONTROLE_VENDA!$E$2:$E$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>I4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1311,51 +1325,54 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="22" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="22" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="22" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="22" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="17" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" style="22" customWidth="1"/>
     <col min="14" max="14" width="5.140625" style="22" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
@@ -1385,20 +1402,24 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1409,8 +1430,503 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="43">
+        <v>7500</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="43">
+        <v>4500</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="43">
+        <v>2500</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="43">
+        <v>10500</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="43">
+        <v>3500</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="43">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="43">
+        <v>7000</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="43">
+        <v>3500</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="43">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="43">
+        <v>1800</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="43">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="43">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="43">
+        <v>2100</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="43">
+        <v>5000</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF47855-580F-4BA8-89CE-5EA4BB6BB879}">
+  <sheetPr codeName="Planilha4"/>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,304 +1959,6 @@
         <v>2</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF47855-580F-4BA8-89CE-5EA4BB6BB879}">
-  <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="26" t="s">
@@ -1754,157 +1972,395 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="19">
+        <v>30</v>
+      </c>
+      <c r="G2" s="20">
+        <v>30</v>
+      </c>
+      <c r="H2" s="21">
+        <f ca="1">TODAY()</f>
+        <v>44284</v>
+      </c>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="19">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H15" ca="1" si="0">TODAY()</f>
+        <v>44284</v>
+      </c>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="19">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20">
+        <v>30</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="19">
+        <v>40</v>
+      </c>
+      <c r="G5" s="20">
+        <v>40</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="19">
+        <v>25</v>
+      </c>
+      <c r="G6" s="20">
+        <v>25</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19">
+        <v>35</v>
+      </c>
+      <c r="G7" s="20">
+        <v>35</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19">
+        <v>15</v>
+      </c>
+      <c r="G8" s="20">
+        <v>15</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="19">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20">
+        <v>10</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19">
+        <v>20</v>
+      </c>
+      <c r="G10" s="20">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="19">
+        <v>20</v>
+      </c>
+      <c r="G11" s="20">
+        <v>20</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="19">
+        <v>12</v>
+      </c>
+      <c r="G12" s="20">
+        <v>12</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="19">
+        <v>8</v>
+      </c>
+      <c r="G13" s="20">
+        <v>8</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="17">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17">
+        <v>10</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="17">
+        <v>10</v>
+      </c>
+      <c r="G15" s="17">
+        <v>10</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44284</v>
+      </c>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2010,7 +2466,7 @@
   <dimension ref="F14:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,10 +2488,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B29589-B168-4B40-AE57-25A864E89D16}">
+  <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="A2" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,10 +3836,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7236ACF-9061-4DE2-B0CB-50D1B30CB46E}">
+  <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A2" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3909,7 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -3479,7 +3937,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H13" ca="1" si="0">TODAY()</f>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -3507,7 +3965,7 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -3535,7 +3993,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -3563,7 +4021,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -3591,7 +4049,7 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -3619,7 +4077,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -3647,7 +4105,7 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -3675,7 +4133,7 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -3703,7 +4161,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -3731,7 +4189,7 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -3759,7 +4217,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="I13" s="3"/>
     </row>
